--- a/data.xlsx
+++ b/data.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Manan</t>
   </si>
@@ -48,10 +42,49 @@
     <t>Most Intellectual person of our batch :)</t>
   </si>
   <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>D:\HorizonXDev\vorbind\icon.png</t>
+    <t>Harshit</t>
+  </si>
+  <si>
+    <t>Ravi House Adjutant</t>
+  </si>
+  <si>
+    <t>Arun Kumar</t>
+  </si>
+  <si>
+    <t>Bacha</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>known for</t>
+  </si>
+  <si>
+    <t>nuts about</t>
+  </si>
+  <si>
+    <t>6th pic</t>
+  </si>
+  <si>
+    <t>12th pic</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>D:\HorizonXDev\Chess-Extension\Chess-Extension\assets\icon.png</t>
+  </si>
+  <si>
+    <t>Chhanchoo</t>
+  </si>
+  <si>
+    <t>Jhelum house adjutant</t>
   </si>
 </sst>
 </file>
@@ -390,70 +423,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="61.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
